--- a/biology/Neurosciences/Bernard_Lechevalier/Bernard_Lechevalier.xlsx
+++ b/biology/Neurosciences/Bernard_Lechevalier/Bernard_Lechevalier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Lechevalier né le 9 juillet 1929 à Caen (Calvados) est un professeur de neurologie, neuropsychologue[1], chercheur à l'Inserm, et membre de l'Académie nationale de médecine.
-Il est aussi musicien, organiste titulaire de l'église Saint-Pierre de Caen[2]. Il s'est particulièrement intéressé aux liens entre la musique et la neurologie. Il a contribué à créer une unité Inserm consacrée à la neuropsychologie.
-Il est l'auteur du livre Le cerveau de Mozart, où à travers l'exemple de Mozart il explore les mécanismes de la perception et de la mémorisation musicale[3], et d'une certaine forme d'intelligence musicale.
-Il s'est intéressé en 2010 à Charles Baudelaire, dans son ouvrage Le cerveau mélomane de Baudelaire: musique et neuropsychologie[4], où il explique comment le cerveau réagit à la musique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Lechevalier né le 9 juillet 1929 à Caen (Calvados) est un professeur de neurologie, neuropsychologue, chercheur à l'Inserm, et membre de l'Académie nationale de médecine.
+Il est aussi musicien, organiste titulaire de l'église Saint-Pierre de Caen. Il s'est particulièrement intéressé aux liens entre la musique et la neurologie. Il a contribué à créer une unité Inserm consacrée à la neuropsychologie.
+Il est l'auteur du livre Le cerveau de Mozart, où à travers l'exemple de Mozart il explore les mécanismes de la perception et de la mémorisation musicale, et d'une certaine forme d'intelligence musicale.
+Il s'est intéressé en 2010 à Charles Baudelaire, dans son ouvrage Le cerveau mélomane de Baudelaire: musique et neuropsychologie, où il explique comment le cerveau réagit à la musique.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abrégé de neurologie, Paris, Masson, 1972, 576 p. (BNF 35390775) en collaboration avec Jean Cambier, Maurice Masson et alii
 Les troubles de la perception de la musique d'origine neurologique : les 3 niveaux de la désintégration de la perception musicale considérée comme une agnosie auditive : rapport de neurologie, Congrès de psychiatrie et de neurologie de langue française, 83e session, Besançon, 24-28 juin 1985, Paris, New York Barcelone, Masson, 1985, 209 p. (ISBN 2-225-80635-7, BNF 34875831) en collaboration avec Francis Eustache et Yvette Rossa
